--- a/team_specific_matrix/Florida St._B.xlsx
+++ b/team_specific_matrix/Florida St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.199288256227758</v>
+        <v>0.2091690544412607</v>
       </c>
       <c r="C2">
-        <v>0.5160142348754448</v>
+        <v>0.504297994269341</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03558718861209965</v>
+        <v>0.03438395415472779</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1494661921708185</v>
+        <v>0.1489971346704871</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.099644128113879</v>
+        <v>0.1031518624641834</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01829268292682927</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C3">
-        <v>0.01219512195121951</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02439024390243903</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7865853658536586</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1585365853658537</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.2244897959183673</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04972375690607735</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01657458563535912</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07734806629834254</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.281767955801105</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02209944751381215</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.138121546961326</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="R6">
-        <v>0.1104972375690608</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="S6">
-        <v>0.3038674033149171</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1352941176470588</v>
+        <v>0.1336633663366337</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02352941176470588</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1235294117647059</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02352941176470588</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1647058823529412</v>
+        <v>0.1732673267326733</v>
       </c>
       <c r="R7">
-        <v>0.05882352941176471</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="S7">
-        <v>0.4117647058823529</v>
+        <v>0.4108910891089109</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1253481894150418</v>
+        <v>0.1278538812785388</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01114206128133705</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08635097493036212</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1337047353760446</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01114206128133705</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1476323119777159</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="R8">
-        <v>0.1086350974930362</v>
+        <v>0.1050228310502283</v>
       </c>
       <c r="S8">
-        <v>0.3760445682451253</v>
+        <v>0.3789954337899543</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01818181818181818</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08181818181818182</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08181818181818182</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00909090909090909</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1727272727272727</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="R9">
-        <v>0.1090909090909091</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S9">
-        <v>0.4363636363636363</v>
+        <v>0.4357142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1288404360753221</v>
+        <v>0.1314475873544093</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02576808721506442</v>
+        <v>0.02412645590682196</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05153617443012884</v>
+        <v>0.0540765391014975</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1635282457879088</v>
+        <v>0.1580698835274542</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02180376610505451</v>
+        <v>0.01996672212978369</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1883052527254708</v>
+        <v>0.1880199667221298</v>
       </c>
       <c r="R10">
-        <v>0.08622398414271557</v>
+        <v>0.08319467554076539</v>
       </c>
       <c r="S10">
-        <v>0.333994053518335</v>
+        <v>0.3410981697171381</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1340996168582375</v>
+        <v>0.146875</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1149425287356322</v>
+        <v>0.109375</v>
       </c>
       <c r="K11">
-        <v>0.2183908045977012</v>
+        <v>0.225</v>
       </c>
       <c r="L11">
-        <v>0.5172413793103449</v>
+        <v>0.50625</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01532567049808429</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7573529411764706</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1838235294117647</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="K12">
-        <v>0.01470588235294118</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="L12">
-        <v>0.007352941176470588</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03676470588235294</v>
+        <v>0.04242424242424243</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2040816326530612</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08163265306122448</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01754385964912281</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1695906432748538</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="I15">
-        <v>0.05263157894736842</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3450292397660819</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="K15">
-        <v>0.1228070175438596</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01169590643274854</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06432748538011696</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2163742690058479</v>
+        <v>0.2163461538461539</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02604166666666667</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1354166666666667</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="I16">
-        <v>0.03125</v>
+        <v>0.03982300884955752</v>
       </c>
       <c r="J16">
-        <v>0.421875</v>
+        <v>0.4292035398230089</v>
       </c>
       <c r="K16">
-        <v>0.1822916666666667</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03645833333333334</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="N16">
-        <v>0.005208333333333333</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="O16">
-        <v>0.0625</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09895833333333333</v>
+        <v>0.1017699115044248</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1630769230769231</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="I17">
-        <v>0.07692307692307693</v>
+        <v>0.07908163265306123</v>
       </c>
       <c r="J17">
-        <v>0.44</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K17">
-        <v>0.1046153846153846</v>
+        <v>0.1096938775510204</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02153846153846154</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002551020408163265</v>
       </c>
       <c r="O17">
-        <v>0.05538461538461539</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09846153846153846</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01162790697674419</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2325581395348837</v>
+        <v>0.2193877551020408</v>
       </c>
       <c r="I18">
-        <v>0.06395348837209303</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="J18">
-        <v>0.3837209302325582</v>
+        <v>0.3724489795918368</v>
       </c>
       <c r="K18">
-        <v>0.09883720930232558</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02325581395348837</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0755813953488372</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1104651162790698</v>
+        <v>0.1173469387755102</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02320441988950276</v>
+        <v>0.01976639712488769</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2287292817679558</v>
+        <v>0.2327044025157233</v>
       </c>
       <c r="I19">
-        <v>0.06077348066298342</v>
+        <v>0.06109613656783468</v>
       </c>
       <c r="J19">
-        <v>0.3558011049723757</v>
+        <v>0.3557951482479784</v>
       </c>
       <c r="K19">
-        <v>0.118232044198895</v>
+        <v>0.1185983827493261</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03093922651933702</v>
+        <v>0.02875112309074573</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07292817679558011</v>
+        <v>0.07367475292003593</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1093922651933702</v>
+        <v>0.1096136567834681</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Florida St._B.xlsx
+++ b/team_specific_matrix/Florida St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2091690544412607</v>
+        <v>0.2071611253196931</v>
       </c>
       <c r="C2">
-        <v>0.504297994269341</v>
+        <v>0.5115089514066496</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03438395415472779</v>
+        <v>0.03324808184143223</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.002557544757033248</v>
       </c>
       <c r="P2">
-        <v>0.1489971346704871</v>
+        <v>0.1483375959079284</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1031518624641834</v>
+        <v>0.09718670076726342</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01538461538461539</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="C3">
-        <v>0.01025641025641026</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02564102564102564</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7692307692307693</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1794871794871795</v>
+        <v>0.1780821917808219</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1020408163265306</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.673469387755102</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2244897959183673</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05263157894736842</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02870813397129187</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07177033492822966</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2727272727272727</v>
+        <v>0.2815126050420168</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02392344497607655</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1339712918660287</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="R6">
-        <v>0.1004784688995215</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="S6">
-        <v>0.3157894736842105</v>
+        <v>0.3151260504201681</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1336633663366337</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02475247524752475</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06435643564356436</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1089108910891089</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0198019801980198</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1732673267326733</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="R7">
-        <v>0.06435643564356436</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="S7">
-        <v>0.4108910891089109</v>
+        <v>0.4045454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1278538812785388</v>
+        <v>0.128</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0136986301369863</v>
+        <v>0.016</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0730593607305936</v>
+        <v>0.074</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.136986301369863</v>
+        <v>0.134</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0136986301369863</v>
+        <v>0.016</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1506849315068493</v>
+        <v>0.152</v>
       </c>
       <c r="R8">
-        <v>0.1050228310502283</v>
+        <v>0.114</v>
       </c>
       <c r="S8">
-        <v>0.3789954337899543</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01428571428571429</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08571428571428572</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01428571428571429</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1928571428571429</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.08571428571428572</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="S9">
-        <v>0.4357142857142857</v>
+        <v>0.432258064516129</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1314475873544093</v>
+        <v>0.1283185840707965</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02412645590682196</v>
+        <v>0.02359882005899705</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0540765391014975</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1580698835274542</v>
+        <v>0.1541297935103245</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01996672212978369</v>
+        <v>0.01991150442477876</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1880199667221298</v>
+        <v>0.1902654867256637</v>
       </c>
       <c r="R10">
-        <v>0.08319467554076539</v>
+        <v>0.0803834808259587</v>
       </c>
       <c r="S10">
-        <v>0.3410981697171381</v>
+        <v>0.3458702064896755</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.146875</v>
+        <v>0.1436950146627566</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.109375</v>
+        <v>0.1055718475073314</v>
       </c>
       <c r="K11">
-        <v>0.225</v>
+        <v>0.2170087976539589</v>
       </c>
       <c r="L11">
-        <v>0.50625</v>
+        <v>0.5219941348973607</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0125</v>
+        <v>0.01173020527859238</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7454545454545455</v>
+        <v>0.7513812154696132</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1878787878787879</v>
+        <v>0.1878453038674033</v>
       </c>
       <c r="K12">
-        <v>0.01212121212121212</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="L12">
-        <v>0.01212121212121212</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04242424242424243</v>
+        <v>0.03867403314917127</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01724137931034483</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G13">
-        <v>0.6551724137931034</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2413793103448276</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08620689655172414</v>
+        <v>0.07575757575757576</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02403846153846154</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1682692307692308</v>
+        <v>0.1617021276595745</v>
       </c>
       <c r="I15">
-        <v>0.0625</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="J15">
-        <v>0.3269230769230769</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K15">
-        <v>0.1153846153846154</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009615384615384616</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07692307692307693</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2163461538461539</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02212389380530973</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1504424778761062</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="I16">
-        <v>0.03982300884955752</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="J16">
-        <v>0.4292035398230089</v>
+        <v>0.4392156862745098</v>
       </c>
       <c r="K16">
-        <v>0.168141592920354</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03097345132743363</v>
+        <v>0.03137254901960784</v>
       </c>
       <c r="N16">
-        <v>0.004424778761061947</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="O16">
-        <v>0.05309734513274336</v>
+        <v>0.05490196078431372</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1017699115044248</v>
+        <v>0.1019607843137255</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03571428571428571</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1607142857142857</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I17">
-        <v>0.07908163265306123</v>
+        <v>0.083710407239819</v>
       </c>
       <c r="J17">
-        <v>0.4285714285714285</v>
+        <v>0.4208144796380091</v>
       </c>
       <c r="K17">
-        <v>0.1096938775510204</v>
+        <v>0.1063348416289593</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02551020408163265</v>
+        <v>0.0248868778280543</v>
       </c>
       <c r="N17">
-        <v>0.002551020408163265</v>
+        <v>0.002262443438914027</v>
       </c>
       <c r="O17">
-        <v>0.05612244897959184</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1020408163265306</v>
+        <v>0.09954751131221719</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01530612244897959</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2193877551020408</v>
+        <v>0.228310502283105</v>
       </c>
       <c r="I18">
-        <v>0.07653061224489796</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="J18">
-        <v>0.3724489795918368</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="K18">
-        <v>0.09693877551020408</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02551020408163265</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07653061224489796</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1173469387755102</v>
+        <v>0.1187214611872146</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01976639712488769</v>
+        <v>0.01998401278976818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2327044025157233</v>
+        <v>0.2326139088729017</v>
       </c>
       <c r="I19">
-        <v>0.06109613656783468</v>
+        <v>0.05755395683453238</v>
       </c>
       <c r="J19">
-        <v>0.3557951482479784</v>
+        <v>0.3565147881694644</v>
       </c>
       <c r="K19">
-        <v>0.1185983827493261</v>
+        <v>0.1135091926458833</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02875112309074573</v>
+        <v>0.03037569944044764</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007993605115907274</v>
       </c>
       <c r="O19">
-        <v>0.07367475292003593</v>
+        <v>0.07434052757793765</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1096136567834681</v>
+        <v>0.114308553157474</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Florida St._B.xlsx
+++ b/team_specific_matrix/Florida St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2071611253196931</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="C2">
-        <v>0.5115089514066496</v>
+        <v>0.5099502487562189</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03324808184143223</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002557544757033248</v>
+        <v>0.002487562189054726</v>
       </c>
       <c r="P2">
-        <v>0.1483375959079284</v>
+        <v>0.1467661691542289</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09718670076726342</v>
+        <v>0.09701492537313433</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0182648401826484</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C3">
-        <v>0.0091324200913242</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0273972602739726</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7671232876712328</v>
+        <v>0.7633928571428571</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1780821917808219</v>
+        <v>0.1830357142857143</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1071428571428571</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6785714285714286</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2142857142857143</v>
+        <v>0.2068965517241379</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07563025210084033</v>
+        <v>0.07346938775510205</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2815126050420168</v>
+        <v>0.2897959183673469</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02100840336134454</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1260504201680672</v>
+        <v>0.1306122448979592</v>
       </c>
       <c r="R6">
-        <v>0.09243697478991597</v>
+        <v>0.08979591836734693</v>
       </c>
       <c r="S6">
-        <v>0.3151260504201681</v>
+        <v>0.3102040816326531</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1318181818181818</v>
+        <v>0.1336206896551724</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02272727272727273</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06818181818181818</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1181818181818182</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1681818181818182</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="R7">
-        <v>0.06818181818181818</v>
+        <v>0.07327586206896551</v>
       </c>
       <c r="S7">
-        <v>0.4045454545454545</v>
+        <v>0.4008620689655172</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.128</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.016</v>
+        <v>0.01553398058252427</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.074</v>
+        <v>0.07378640776699029</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.134</v>
+        <v>0.1300970873786408</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.016</v>
+        <v>0.01747572815533981</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.152</v>
+        <v>0.1514563106796117</v>
       </c>
       <c r="R8">
-        <v>0.114</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="S8">
-        <v>0.366</v>
+        <v>0.3689320388349515</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09677419354838709</v>
+        <v>0.09375</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01935483870967742</v>
+        <v>0.01875</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06451612903225806</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09677419354838709</v>
+        <v>0.09375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01290322580645161</v>
+        <v>0.0125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.20625</v>
       </c>
       <c r="R9">
-        <v>0.07741935483870968</v>
+        <v>0.075</v>
       </c>
       <c r="S9">
-        <v>0.432258064516129</v>
+        <v>0.43125</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1283185840707965</v>
+        <v>0.1278571428571429</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02359882005899705</v>
+        <v>0.02357142857142857</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05752212389380531</v>
+        <v>0.05642857142857143</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1541297935103245</v>
+        <v>0.1528571428571429</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01991150442477876</v>
+        <v>0.02</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1902654867256637</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="R10">
-        <v>0.0803834808259587</v>
+        <v>0.08214285714285714</v>
       </c>
       <c r="S10">
-        <v>0.3458702064896755</v>
+        <v>0.3442857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1436950146627566</v>
+        <v>0.1448467966573816</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1055718475073314</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="K11">
-        <v>0.2170087976539589</v>
+        <v>0.2144846796657382</v>
       </c>
       <c r="L11">
-        <v>0.5219941348973607</v>
+        <v>0.5264623955431755</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01173020527859238</v>
+        <v>0.01114206128133705</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7513812154696132</v>
+        <v>0.7461139896373057</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1878453038674033</v>
+        <v>0.1917098445595855</v>
       </c>
       <c r="K12">
-        <v>0.01104972375690608</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="L12">
-        <v>0.01104972375690608</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03867403314917127</v>
+        <v>0.03626943005181347</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01515151515151515</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G13">
-        <v>0.6363636363636364</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2727272727272727</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07575757575757576</v>
+        <v>0.07462686567164178</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02127659574468085</v>
+        <v>0.025</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1617021276595745</v>
+        <v>0.1625</v>
       </c>
       <c r="I15">
-        <v>0.07234042553191489</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="J15">
-        <v>0.3404255319148936</v>
+        <v>0.3375</v>
       </c>
       <c r="K15">
-        <v>0.1063829787234043</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008510638297872341</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07659574468085106</v>
+        <v>0.075</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2127659574468085</v>
+        <v>0.2166666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1529411764705882</v>
+        <v>0.15</v>
       </c>
       <c r="I16">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J16">
-        <v>0.4392156862745098</v>
+        <v>0.4346153846153846</v>
       </c>
       <c r="K16">
-        <v>0.1568627450980392</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03137254901960784</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="N16">
-        <v>0.00392156862745098</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="O16">
-        <v>0.05490196078431372</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1019607843137255</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03167420814479638</v>
+        <v>0.03253796095444685</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1764705882352941</v>
+        <v>0.1735357917570499</v>
       </c>
       <c r="I17">
-        <v>0.083710407239819</v>
+        <v>0.08459869848156182</v>
       </c>
       <c r="J17">
-        <v>0.4208144796380091</v>
+        <v>0.4229934924078091</v>
       </c>
       <c r="K17">
-        <v>0.1063348416289593</v>
+        <v>0.1106290672451193</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0248868778280543</v>
+        <v>0.02386117136659436</v>
       </c>
       <c r="N17">
-        <v>0.002262443438914027</v>
+        <v>0.002169197396963124</v>
       </c>
       <c r="O17">
-        <v>0.05429864253393665</v>
+        <v>0.05206073752711497</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09954751131221719</v>
+        <v>0.09761388286334056</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0182648401826484</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.228310502283105</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="I18">
-        <v>0.0684931506849315</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="J18">
-        <v>0.3698630136986301</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="K18">
-        <v>0.091324200913242</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0273972602739726</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0776255707762557</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1187214611872146</v>
+        <v>0.1217391304347826</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01998401278976818</v>
+        <v>0.02010827532869296</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2326139088729017</v>
+        <v>0.234338747099768</v>
       </c>
       <c r="I19">
-        <v>0.05755395683453238</v>
+        <v>0.05723124516627997</v>
       </c>
       <c r="J19">
-        <v>0.3565147881694644</v>
+        <v>0.3549883990719258</v>
       </c>
       <c r="K19">
-        <v>0.1135091926458833</v>
+        <v>0.1144624903325599</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03037569944044764</v>
+        <v>0.02938901778808971</v>
       </c>
       <c r="N19">
-        <v>0.0007993605115907274</v>
+        <v>0.0007733952049497294</v>
       </c>
       <c r="O19">
-        <v>0.07434052757793765</v>
+        <v>0.07269914926527456</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.114308553157474</v>
+        <v>0.1160092807424594</v>
       </c>
     </row>
   </sheetData>
